--- a/2022/Realme/January/16.01.2022/realme Bank Statement January-2022.xlsx
+++ b/2022/Realme/January/16.01.2022/realme Bank Statement January-2022.xlsx
@@ -2243,9 +2243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2342,9 +2339,6 @@
     <xf numFmtId="1" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="35" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2417,6 +2411,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2456,12 +2456,6 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2583,6 +2577,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="40" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3122,21 +3122,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="B1" s="241" t="s">
+      <c r="B1" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
-      <c r="B2" s="242" t="s">
+      <c r="B2" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="16" t="s">
@@ -4046,43 +4046,43 @@
       <c r="B4" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="243" t="s">
+      <c r="D4" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="243" t="s">
+      <c r="E4" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="243" t="s">
+      <c r="F4" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="243" t="s">
+      <c r="G4" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="243" t="s">
+      <c r="H4" s="241" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="243" t="s">
+      <c r="I4" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="243" t="s">
+      <c r="J4" s="241" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="243" t="s">
+      <c r="K4" s="241" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="243" t="s">
+      <c r="L4" s="241" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="243" t="s">
+      <c r="M4" s="241" t="s">
         <v>58</v>
       </c>
       <c r="N4" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="258" t="s">
+      <c r="O4" s="243" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="256" t="s">
@@ -4100,19 +4100,19 @@
     <row r="5" spans="1:24" s="106" customFormat="1" ht="13.5" thickBot="1">
       <c r="A5" s="253"/>
       <c r="B5" s="255"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244"/>
-      <c r="L5" s="244"/>
-      <c r="M5" s="244"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
       <c r="N5" s="246"/>
-      <c r="O5" s="259"/>
+      <c r="O5" s="244"/>
       <c r="P5" s="257"/>
       <c r="Q5" s="110" t="s">
         <v>37</v>
@@ -7125,12 +7125,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7144,6 +7138,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7181,14 +7181,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="269"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="267"/>
       <c r="L1" s="38"/>
       <c r="M1" s="158"/>
       <c r="N1" s="158"/>
@@ -7241,14 +7241,14 @@
       <c r="BI1" s="158"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
+      <c r="B2" s="268"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
       <c r="L2" s="38"/>
       <c r="M2" s="158"/>
       <c r="N2" s="158"/>
@@ -7301,14 +7301,14 @@
       <c r="BI2" s="158"/>
     </row>
     <row r="3" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A3" s="271" t="s">
+      <c r="A3" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="272"/>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="273"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="271"/>
       <c r="K3" s="158"/>
       <c r="L3" s="38"/>
       <c r="M3" s="158"/>
@@ -7362,22 +7362,22 @@
       <c r="BI3" s="158"/>
     </row>
     <row r="4" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="216" t="s">
+      <c r="C4" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="215" t="s">
+      <c r="D4" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="215" t="s">
+      <c r="E4" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="217" t="s">
+      <c r="F4" s="216" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="158"/>
@@ -7437,15 +7437,15 @@
       <c r="BI4" s="158"/>
     </row>
     <row r="5" spans="1:61">
-      <c r="A5" s="211"/>
-      <c r="B5" s="212"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212">
+      <c r="A5" s="210"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211">
         <f>C5+D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="213"/>
+      <c r="F5" s="212"/>
       <c r="G5" s="38"/>
       <c r="H5" s="40" t="s">
         <v>19</v>
@@ -9484,12 +9484,12 @@
       <c r="BI34" s="158"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="274" t="s">
+      <c r="A35" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="275"/>
-      <c r="C35" s="275"/>
-      <c r="D35" s="276"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="274"/>
       <c r="E35" s="48"/>
       <c r="F35" s="43"/>
       <c r="G35" s="60"/>
@@ -9549,17 +9549,17 @@
       <c r="BI35" s="158"/>
     </row>
     <row r="36" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A36" s="277" t="s">
+      <c r="A36" s="275" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="278"/>
-      <c r="C36" s="278"/>
-      <c r="D36" s="279"/>
-      <c r="E36" s="210">
+      <c r="B36" s="276"/>
+      <c r="C36" s="276"/>
+      <c r="D36" s="277"/>
+      <c r="E36" s="209">
         <f>F33-C113+K116</f>
         <v>0</v>
       </c>
-      <c r="F36" s="205"/>
+      <c r="F36" s="204"/>
       <c r="G36" s="60"/>
       <c r="H36" s="60"/>
       <c r="I36" s="168"/>
@@ -9617,10 +9617,10 @@
       <c r="BI36" s="158"/>
     </row>
     <row r="37" spans="1:61">
-      <c r="A37" s="206"/>
-      <c r="B37" s="207"/>
-      <c r="C37" s="208"/>
-      <c r="D37" s="209"/>
+      <c r="A37" s="205"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="208"/>
       <c r="E37" s="48"/>
       <c r="F37" s="39"/>
       <c r="G37" s="60"/>
@@ -9682,7 +9682,7 @@
     <row r="38" spans="1:61">
       <c r="A38" s="85"/>
       <c r="B38" s="39"/>
-      <c r="C38" s="193"/>
+      <c r="C38" s="192"/>
       <c r="D38" s="39"/>
       <c r="E38" s="47"/>
       <c r="F38" s="43"/>
@@ -9745,7 +9745,7 @@
     <row r="39" spans="1:61">
       <c r="A39" s="85"/>
       <c r="B39" s="64"/>
-      <c r="C39" s="193"/>
+      <c r="C39" s="192"/>
       <c r="D39" s="39"/>
       <c r="E39" s="47"/>
       <c r="F39" s="39"/>
@@ -9808,7 +9808,7 @@
     <row r="40" spans="1:61">
       <c r="A40" s="85"/>
       <c r="B40" s="162"/>
-      <c r="C40" s="223"/>
+      <c r="C40" s="221"/>
       <c r="D40" s="43"/>
       <c r="E40" s="47"/>
       <c r="F40" s="39"/>
@@ -9869,14 +9869,14 @@
       <c r="BI40" s="158"/>
     </row>
     <row r="41" spans="1:61">
-      <c r="A41" s="226" t="s">
+      <c r="A41" s="224" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="226"/>
-      <c r="C41" s="229">
+      <c r="B41" s="224"/>
+      <c r="C41" s="227">
         <v>31990</v>
       </c>
-      <c r="D41" s="226" t="s">
+      <c r="D41" s="224" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="66"/>
@@ -9938,19 +9938,19 @@
       <c r="BI41" s="158"/>
     </row>
     <row r="42" spans="1:61">
-      <c r="A42" s="226" t="s">
+      <c r="A42" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="226" t="s">
+      <c r="B42" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="229">
+      <c r="C42" s="227">
         <v>31990</v>
       </c>
-      <c r="D42" s="226" t="s">
+      <c r="D42" s="224" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="194"/>
+      <c r="F42" s="193"/>
       <c r="G42" s="68"/>
       <c r="H42" s="68"/>
       <c r="I42" s="168"/>
@@ -10008,28 +10008,28 @@
       <c r="BI42" s="158"/>
     </row>
     <row r="43" spans="1:61">
-      <c r="A43" s="226" t="s">
+      <c r="A43" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="226" t="s">
+      <c r="B43" s="224" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="229">
+      <c r="C43" s="227">
         <v>1800</v>
       </c>
-      <c r="D43" s="230" t="s">
+      <c r="D43" s="228" t="s">
         <v>57</v>
       </c>
       <c r="E43" s="48"/>
-      <c r="F43" s="280" t="s">
+      <c r="F43" s="278" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="281"/>
-      <c r="H43" s="281"/>
-      <c r="I43" s="281"/>
-      <c r="J43" s="281"/>
-      <c r="K43" s="281"/>
-      <c r="L43" s="282"/>
+      <c r="G43" s="279"/>
+      <c r="H43" s="279"/>
+      <c r="I43" s="279"/>
+      <c r="J43" s="279"/>
+      <c r="K43" s="279"/>
+      <c r="L43" s="280"/>
       <c r="M43" s="158"/>
       <c r="N43" s="158"/>
       <c r="O43" s="158"/>
@@ -10081,24 +10081,24 @@
       <c r="BI43" s="158"/>
     </row>
     <row r="44" spans="1:61">
-      <c r="A44" s="226" t="s">
+      <c r="A44" s="224" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="226" t="s">
+      <c r="B44" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="229">
+      <c r="C44" s="227">
         <v>6000</v>
       </c>
-      <c r="D44" s="230" t="s">
+      <c r="D44" s="228" t="s">
         <v>55</v>
       </c>
       <c r="E44" s="47"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="195"/>
-      <c r="H44" s="195"/>
-      <c r="I44" s="196"/>
-      <c r="J44" s="196"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="195"/>
       <c r="K44" s="70"/>
       <c r="L44" s="40"/>
       <c r="N44" s="158"/>
@@ -10151,16 +10151,16 @@
       <c r="BI44" s="158"/>
     </row>
     <row r="45" spans="1:61">
-      <c r="A45" s="226" t="s">
+      <c r="A45" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="226" t="s">
+      <c r="B45" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="229">
+      <c r="C45" s="227">
         <v>4460</v>
       </c>
-      <c r="D45" s="226" t="s">
+      <c r="D45" s="224" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="47"/>
@@ -10221,16 +10221,16 @@
       <c r="BI45" s="158"/>
     </row>
     <row r="46" spans="1:61">
-      <c r="A46" s="231" t="s">
+      <c r="A46" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="226" t="s">
+      <c r="B46" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="229">
+      <c r="C46" s="227">
         <v>147630</v>
       </c>
-      <c r="D46" s="230" t="s">
+      <c r="D46" s="228" t="s">
         <v>70</v>
       </c>
       <c r="E46" s="47"/>
@@ -10291,16 +10291,16 @@
       <c r="BI46" s="158"/>
     </row>
     <row r="47" spans="1:61">
-      <c r="A47" s="226" t="s">
+      <c r="A47" s="224" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="226" t="s">
+      <c r="B47" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="229">
+      <c r="C47" s="227">
         <v>299440</v>
       </c>
-      <c r="D47" s="226" t="s">
+      <c r="D47" s="224" t="s">
         <v>75</v>
       </c>
       <c r="E47" s="47"/>
@@ -10361,16 +10361,16 @@
       <c r="BI47" s="158"/>
     </row>
     <row r="48" spans="1:61">
-      <c r="A48" s="226" t="s">
+      <c r="A48" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="226" t="s">
+      <c r="B48" s="224" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="229">
+      <c r="C48" s="227">
         <v>500</v>
       </c>
-      <c r="D48" s="226" t="s">
+      <c r="D48" s="224" t="s">
         <v>85</v>
       </c>
       <c r="E48" s="47"/>
@@ -10431,16 +10431,16 @@
       <c r="BI48" s="158"/>
     </row>
     <row r="49" spans="1:61">
-      <c r="A49" s="230" t="s">
+      <c r="A49" s="228" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="226" t="s">
+      <c r="B49" s="224" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="229">
+      <c r="C49" s="227">
         <v>6000</v>
       </c>
-      <c r="D49" s="226" t="s">
+      <c r="D49" s="224" t="s">
         <v>91</v>
       </c>
       <c r="E49" s="47"/>
@@ -10501,14 +10501,14 @@
       <c r="BI49" s="158"/>
     </row>
     <row r="50" spans="1:61">
-      <c r="A50" s="226" t="s">
+      <c r="A50" s="224" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="226"/>
-      <c r="C50" s="229">
+      <c r="B50" s="224"/>
+      <c r="C50" s="227">
         <v>14890</v>
       </c>
-      <c r="D50" s="226" t="s">
+      <c r="D50" s="224" t="s">
         <v>94</v>
       </c>
       <c r="E50" s="47"/>
@@ -10569,10 +10569,10 @@
       <c r="BI50" s="158"/>
     </row>
     <row r="51" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A51" s="226"/>
-      <c r="B51" s="226"/>
-      <c r="C51" s="229"/>
-      <c r="D51" s="226"/>
+      <c r="A51" s="224"/>
+      <c r="B51" s="224"/>
+      <c r="C51" s="227"/>
+      <c r="D51" s="224"/>
       <c r="E51" s="47"/>
       <c r="F51" s="40"/>
       <c r="G51" s="159"/>
@@ -10634,7 +10634,7 @@
     <row r="52" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A52" s="77"/>
       <c r="B52" s="45"/>
-      <c r="C52" s="191"/>
+      <c r="C52" s="190"/>
       <c r="D52" s="73"/>
       <c r="E52" s="47"/>
       <c r="F52" s="159"/>
@@ -10697,7 +10697,7 @@
     <row r="53" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A53" s="77"/>
       <c r="B53" s="40"/>
-      <c r="C53" s="191"/>
+      <c r="C53" s="190"/>
       <c r="D53" s="78"/>
       <c r="E53" s="47"/>
       <c r="F53" s="41"/>
@@ -10762,7 +10762,7 @@
     <row r="54" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A54" s="79"/>
       <c r="B54" s="75"/>
-      <c r="C54" s="191"/>
+      <c r="C54" s="190"/>
       <c r="D54" s="73"/>
       <c r="E54" s="47"/>
       <c r="F54" s="159"/>
@@ -10825,7 +10825,7 @@
     <row r="55" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A55" s="74"/>
       <c r="B55" s="40"/>
-      <c r="C55" s="191"/>
+      <c r="C55" s="190"/>
       <c r="D55" s="81"/>
       <c r="E55" s="47"/>
       <c r="F55" s="40"/>
@@ -10888,7 +10888,7 @@
     <row r="56" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A56" s="74"/>
       <c r="B56" s="40"/>
-      <c r="C56" s="191"/>
+      <c r="C56" s="190"/>
       <c r="D56" s="75"/>
       <c r="E56" s="47"/>
       <c r="F56" s="40"/>
@@ -10951,7 +10951,7 @@
     <row r="57" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A57" s="77"/>
       <c r="B57" s="40"/>
-      <c r="C57" s="191"/>
+      <c r="C57" s="190"/>
       <c r="D57" s="78"/>
       <c r="E57" s="47"/>
       <c r="F57" s="40"/>
@@ -11014,7 +11014,7 @@
     <row r="58" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A58" s="80"/>
       <c r="B58" s="80"/>
-      <c r="C58" s="191"/>
+      <c r="C58" s="190"/>
       <c r="D58" s="78"/>
       <c r="E58" s="47"/>
       <c r="F58" s="41"/>
@@ -11079,7 +11079,7 @@
     <row r="59" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A59" s="77"/>
       <c r="B59" s="40"/>
-      <c r="C59" s="191"/>
+      <c r="C59" s="190"/>
       <c r="D59" s="78"/>
       <c r="E59" s="47"/>
       <c r="F59" s="40"/>
@@ -11142,7 +11142,7 @@
     <row r="60" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A60" s="77"/>
       <c r="B60" s="40"/>
-      <c r="C60" s="191"/>
+      <c r="C60" s="190"/>
       <c r="D60" s="78"/>
       <c r="E60" s="47"/>
       <c r="F60" s="40"/>
@@ -11205,7 +11205,7 @@
     <row r="61" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A61" s="77"/>
       <c r="B61" s="40"/>
-      <c r="C61" s="191"/>
+      <c r="C61" s="190"/>
       <c r="D61" s="81"/>
       <c r="E61" s="48"/>
       <c r="F61" s="40"/>
@@ -11268,13 +11268,13 @@
     <row r="62" spans="1:61" ht="12.75" hidden="1" customHeight="1">
       <c r="A62" s="169"/>
       <c r="B62" s="169"/>
-      <c r="C62" s="191"/>
+      <c r="C62" s="190"/>
       <c r="D62" s="81"/>
       <c r="E62" s="53"/>
-      <c r="F62" s="260" t="s">
+      <c r="F62" s="258" t="s">
         <v>41</v>
       </c>
-      <c r="G62" s="261"/>
+      <c r="G62" s="259"/>
       <c r="H62" s="157"/>
       <c r="I62" s="157"/>
       <c r="J62" s="82" t="s">
@@ -11335,7 +11335,7 @@
     <row r="63" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A63" s="77"/>
       <c r="B63" s="40"/>
-      <c r="C63" s="191"/>
+      <c r="C63" s="190"/>
       <c r="D63" s="81"/>
       <c r="E63" s="47"/>
       <c r="F63" s="84"/>
@@ -11398,7 +11398,7 @@
     <row r="64" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A64" s="77"/>
       <c r="B64" s="75"/>
-      <c r="C64" s="191"/>
+      <c r="C64" s="190"/>
       <c r="D64" s="81"/>
       <c r="E64" s="47"/>
       <c r="F64" s="86"/>
@@ -11461,7 +11461,7 @@
     <row r="65" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A65" s="77"/>
       <c r="B65" s="40"/>
-      <c r="C65" s="191"/>
+      <c r="C65" s="190"/>
       <c r="D65" s="75"/>
       <c r="E65" s="47"/>
       <c r="F65" s="84"/>
@@ -11524,7 +11524,7 @@
     <row r="66" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A66" s="77"/>
       <c r="B66" s="75"/>
-      <c r="C66" s="191"/>
+      <c r="C66" s="190"/>
       <c r="D66" s="81"/>
       <c r="E66" s="47"/>
       <c r="F66" s="89"/>
@@ -11587,7 +11587,7 @@
     <row r="67" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A67" s="77"/>
       <c r="B67" s="40"/>
-      <c r="C67" s="191"/>
+      <c r="C67" s="190"/>
       <c r="D67" s="81"/>
       <c r="E67" s="47"/>
       <c r="F67" s="84"/>
@@ -11650,7 +11650,7 @@
     <row r="68" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A68" s="74"/>
       <c r="B68" s="40"/>
-      <c r="C68" s="191"/>
+      <c r="C68" s="190"/>
       <c r="D68" s="81"/>
       <c r="E68" s="47"/>
       <c r="F68" s="84"/>
@@ -11713,7 +11713,7 @@
     <row r="69" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A69" s="74"/>
       <c r="B69" s="40"/>
-      <c r="C69" s="191"/>
+      <c r="C69" s="190"/>
       <c r="D69" s="81"/>
       <c r="E69" s="158"/>
       <c r="F69" s="84"/>
@@ -11776,7 +11776,7 @@
     <row r="70" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A70" s="77"/>
       <c r="B70" s="40"/>
-      <c r="C70" s="191"/>
+      <c r="C70" s="190"/>
       <c r="D70" s="75"/>
       <c r="E70" s="47"/>
       <c r="F70" s="89"/>
@@ -11839,7 +11839,7 @@
     <row r="71" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A71" s="77"/>
       <c r="B71" s="40"/>
-      <c r="C71" s="191"/>
+      <c r="C71" s="190"/>
       <c r="D71" s="78"/>
       <c r="E71" s="48"/>
       <c r="F71" s="89"/>
@@ -11902,7 +11902,7 @@
     <row r="72" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A72" s="77"/>
       <c r="B72" s="40"/>
-      <c r="C72" s="191"/>
+      <c r="C72" s="190"/>
       <c r="D72" s="78"/>
       <c r="E72" s="48"/>
       <c r="F72" s="89"/>
@@ -11965,7 +11965,7 @@
     <row r="73" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A73" s="74"/>
       <c r="B73" s="40"/>
-      <c r="C73" s="191"/>
+      <c r="C73" s="190"/>
       <c r="D73" s="78"/>
       <c r="E73" s="48"/>
       <c r="F73" s="89"/>
@@ -12028,7 +12028,7 @@
     <row r="74" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A74" s="77"/>
       <c r="B74" s="40"/>
-      <c r="C74" s="191"/>
+      <c r="C74" s="190"/>
       <c r="D74" s="81"/>
       <c r="E74" s="48"/>
       <c r="F74" s="89"/>
@@ -12091,7 +12091,7 @@
     <row r="75" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A75" s="77"/>
       <c r="B75" s="40"/>
-      <c r="C75" s="191"/>
+      <c r="C75" s="190"/>
       <c r="D75" s="78"/>
       <c r="E75" s="47"/>
       <c r="F75" s="89"/>
@@ -12154,7 +12154,7 @@
     <row r="76" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A76" s="77"/>
       <c r="B76" s="40"/>
-      <c r="C76" s="191"/>
+      <c r="C76" s="190"/>
       <c r="D76" s="78"/>
       <c r="E76" s="47"/>
       <c r="F76" s="89"/>
@@ -12217,7 +12217,7 @@
     <row r="77" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A77" s="77"/>
       <c r="B77" s="40"/>
-      <c r="C77" s="191"/>
+      <c r="C77" s="190"/>
       <c r="D77" s="78"/>
       <c r="E77" s="47"/>
       <c r="F77" s="84"/>
@@ -12280,7 +12280,7 @@
     <row r="78" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A78" s="77"/>
       <c r="B78" s="40"/>
-      <c r="C78" s="190"/>
+      <c r="C78" s="189"/>
       <c r="D78" s="78"/>
       <c r="E78" s="47"/>
       <c r="F78" s="89"/>
@@ -12343,7 +12343,7 @@
     <row r="79" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A79" s="77"/>
       <c r="B79" s="40"/>
-      <c r="C79" s="191"/>
+      <c r="C79" s="190"/>
       <c r="D79" s="78"/>
       <c r="E79" s="47"/>
       <c r="F79" s="89"/>
@@ -12406,7 +12406,7 @@
     <row r="80" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A80" s="77"/>
       <c r="B80" s="75"/>
-      <c r="C80" s="191"/>
+      <c r="C80" s="190"/>
       <c r="D80" s="81"/>
       <c r="E80" s="47"/>
       <c r="F80" s="89"/>
@@ -12469,7 +12469,7 @@
     <row r="81" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A81" s="77"/>
       <c r="B81" s="40"/>
-      <c r="C81" s="191"/>
+      <c r="C81" s="190"/>
       <c r="D81" s="78"/>
       <c r="E81" s="47"/>
       <c r="F81" s="92"/>
@@ -12532,7 +12532,7 @@
     <row r="82" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A82" s="77"/>
       <c r="B82" s="40"/>
-      <c r="C82" s="191"/>
+      <c r="C82" s="190"/>
       <c r="D82" s="78"/>
       <c r="E82" s="48"/>
       <c r="F82" s="93"/>
@@ -12595,7 +12595,7 @@
     <row r="83" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A83" s="74"/>
       <c r="B83" s="81"/>
-      <c r="C83" s="191"/>
+      <c r="C83" s="190"/>
       <c r="D83" s="78"/>
       <c r="E83" s="48"/>
       <c r="F83" s="93"/>
@@ -12658,7 +12658,7 @@
     <row r="84" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A84" s="74"/>
       <c r="B84" s="40"/>
-      <c r="C84" s="191"/>
+      <c r="C84" s="190"/>
       <c r="D84" s="78"/>
       <c r="E84" s="48"/>
       <c r="F84" s="92"/>
@@ -12721,7 +12721,7 @@
     <row r="85" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A85" s="77"/>
       <c r="B85" s="40"/>
-      <c r="C85" s="191"/>
+      <c r="C85" s="190"/>
       <c r="D85" s="78"/>
       <c r="E85" s="48"/>
       <c r="F85" s="92"/>
@@ -12784,7 +12784,7 @@
     <row r="86" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A86" s="77"/>
       <c r="B86" s="75"/>
-      <c r="C86" s="191"/>
+      <c r="C86" s="190"/>
       <c r="D86" s="75"/>
       <c r="E86" s="48"/>
       <c r="F86" s="89"/>
@@ -12847,7 +12847,7 @@
     <row r="87" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A87" s="77"/>
       <c r="B87" s="40"/>
-      <c r="C87" s="191"/>
+      <c r="C87" s="190"/>
       <c r="D87" s="78"/>
       <c r="E87" s="47"/>
       <c r="F87" s="89"/>
@@ -12910,7 +12910,7 @@
     <row r="88" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A88" s="77"/>
       <c r="B88" s="75"/>
-      <c r="C88" s="191"/>
+      <c r="C88" s="190"/>
       <c r="D88" s="75"/>
       <c r="E88" s="47"/>
       <c r="F88" s="84"/>
@@ -12973,7 +12973,7 @@
     <row r="89" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A89" s="74"/>
       <c r="B89" s="40"/>
-      <c r="C89" s="191"/>
+      <c r="C89" s="190"/>
       <c r="D89" s="81"/>
       <c r="E89" s="47"/>
       <c r="F89" s="89"/>
@@ -13036,7 +13036,7 @@
     <row r="90" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A90" s="77"/>
       <c r="B90" s="40"/>
-      <c r="C90" s="191"/>
+      <c r="C90" s="190"/>
       <c r="D90" s="81"/>
       <c r="E90" s="47"/>
       <c r="F90" s="89"/>
@@ -13099,7 +13099,7 @@
     <row r="91" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A91" s="77"/>
       <c r="B91" s="75"/>
-      <c r="C91" s="191"/>
+      <c r="C91" s="190"/>
       <c r="D91" s="75"/>
       <c r="E91" s="47"/>
       <c r="F91" s="89"/>
@@ -13162,7 +13162,7 @@
     <row r="92" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A92" s="77"/>
       <c r="B92" s="40"/>
-      <c r="C92" s="191"/>
+      <c r="C92" s="190"/>
       <c r="D92" s="75"/>
       <c r="F92" s="89"/>
       <c r="G92" s="85"/>
@@ -13224,7 +13224,7 @@
     <row r="93" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A93" s="77"/>
       <c r="B93" s="40"/>
-      <c r="C93" s="191"/>
+      <c r="C93" s="190"/>
       <c r="D93" s="78"/>
       <c r="F93" s="89"/>
       <c r="G93" s="87"/>
@@ -13286,7 +13286,7 @@
     <row r="94" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A94" s="77"/>
       <c r="B94" s="75"/>
-      <c r="C94" s="191"/>
+      <c r="C94" s="190"/>
       <c r="D94" s="75"/>
       <c r="F94" s="84"/>
       <c r="G94" s="85"/>
@@ -13348,7 +13348,7 @@
     <row r="95" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A95" s="77"/>
       <c r="B95" s="75"/>
-      <c r="C95" s="191"/>
+      <c r="C95" s="190"/>
       <c r="D95" s="75"/>
       <c r="F95" s="89"/>
       <c r="G95" s="85"/>
@@ -13410,7 +13410,7 @@
     <row r="96" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A96" s="77"/>
       <c r="B96" s="75"/>
-      <c r="C96" s="191"/>
+      <c r="C96" s="190"/>
       <c r="D96" s="75"/>
       <c r="F96" s="93"/>
       <c r="G96" s="87"/>
@@ -13472,7 +13472,7 @@
     <row r="97" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A97" s="77"/>
       <c r="B97" s="75"/>
-      <c r="C97" s="191"/>
+      <c r="C97" s="190"/>
       <c r="D97" s="75"/>
       <c r="F97" s="93"/>
       <c r="G97" s="87"/>
@@ -13534,7 +13534,7 @@
     <row r="98" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A98" s="77"/>
       <c r="B98" s="40"/>
-      <c r="C98" s="191"/>
+      <c r="C98" s="190"/>
       <c r="D98" s="78"/>
       <c r="F98" s="93"/>
       <c r="G98" s="85"/>
@@ -13596,7 +13596,7 @@
     <row r="99" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A99" s="77"/>
       <c r="B99" s="75"/>
-      <c r="C99" s="191"/>
+      <c r="C99" s="190"/>
       <c r="D99" s="75"/>
       <c r="F99" s="93"/>
       <c r="G99" s="85"/>
@@ -13658,7 +13658,7 @@
     <row r="100" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A100" s="77"/>
       <c r="B100" s="75"/>
-      <c r="C100" s="191"/>
+      <c r="C100" s="190"/>
       <c r="D100" s="75"/>
       <c r="F100" s="93"/>
       <c r="G100" s="85"/>
@@ -13720,7 +13720,7 @@
     <row r="101" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A101" s="77"/>
       <c r="B101" s="75"/>
-      <c r="C101" s="191"/>
+      <c r="C101" s="190"/>
       <c r="D101" s="75"/>
       <c r="F101" s="93"/>
       <c r="G101" s="85"/>
@@ -13782,7 +13782,7 @@
     <row r="102" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A102" s="77"/>
       <c r="B102" s="95"/>
-      <c r="C102" s="191"/>
+      <c r="C102" s="190"/>
       <c r="D102" s="75"/>
       <c r="F102" s="93"/>
       <c r="G102" s="87"/>
@@ -13844,7 +13844,7 @@
     <row r="103" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A103" s="77"/>
       <c r="B103" s="75"/>
-      <c r="C103" s="191"/>
+      <c r="C103" s="190"/>
       <c r="D103" s="75"/>
       <c r="F103" s="93"/>
       <c r="G103" s="85"/>
@@ -13906,7 +13906,7 @@
     <row r="104" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A104" s="77"/>
       <c r="B104" s="75"/>
-      <c r="C104" s="191"/>
+      <c r="C104" s="190"/>
       <c r="D104" s="75"/>
       <c r="F104" s="93"/>
       <c r="G104" s="87"/>
@@ -13968,7 +13968,7 @@
     <row r="105" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A105" s="77"/>
       <c r="B105" s="40"/>
-      <c r="C105" s="191"/>
+      <c r="C105" s="190"/>
       <c r="D105" s="78"/>
       <c r="F105" s="93"/>
       <c r="G105" s="85"/>
@@ -14030,7 +14030,7 @@
     <row r="106" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A106" s="77"/>
       <c r="B106" s="75"/>
-      <c r="C106" s="191"/>
+      <c r="C106" s="190"/>
       <c r="D106" s="75"/>
       <c r="F106" s="93"/>
       <c r="G106" s="87"/>
@@ -14092,7 +14092,7 @@
     <row r="107" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A107" s="77"/>
       <c r="B107" s="75"/>
-      <c r="C107" s="191"/>
+      <c r="C107" s="190"/>
       <c r="D107" s="75"/>
       <c r="F107" s="93"/>
       <c r="G107" s="85"/>
@@ -14154,7 +14154,7 @@
     <row r="108" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A108" s="77"/>
       <c r="B108" s="75"/>
-      <c r="C108" s="191"/>
+      <c r="C108" s="190"/>
       <c r="D108" s="75"/>
       <c r="F108" s="93"/>
       <c r="G108" s="85"/>
@@ -14216,7 +14216,7 @@
     <row r="109" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A109" s="77"/>
       <c r="B109" s="75"/>
-      <c r="C109" s="191"/>
+      <c r="C109" s="190"/>
       <c r="D109" s="75"/>
       <c r="F109" s="93"/>
       <c r="G109" s="85"/>
@@ -14278,7 +14278,7 @@
     <row r="110" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A110" s="74"/>
       <c r="B110" s="95"/>
-      <c r="C110" s="191"/>
+      <c r="C110" s="190"/>
       <c r="D110" s="75"/>
       <c r="F110" s="93"/>
       <c r="G110" s="87"/>
@@ -14340,7 +14340,7 @@
     <row r="111" spans="1:61" ht="13.5" hidden="1" thickBot="1">
       <c r="A111" s="77"/>
       <c r="B111" s="75"/>
-      <c r="C111" s="191"/>
+      <c r="C111" s="190"/>
       <c r="D111" s="75"/>
       <c r="F111" s="93"/>
       <c r="G111" s="87"/>
@@ -14400,10 +14400,10 @@
       <c r="BI111" s="158"/>
     </row>
     <row r="112" spans="1:61" ht="13.5" hidden="1" thickBot="1">
-      <c r="A112" s="197"/>
-      <c r="B112" s="198"/>
-      <c r="C112" s="199"/>
-      <c r="D112" s="200"/>
+      <c r="A112" s="196"/>
+      <c r="B112" s="197"/>
+      <c r="C112" s="198"/>
+      <c r="D112" s="199"/>
       <c r="F112" s="93"/>
       <c r="G112" s="85"/>
       <c r="H112" s="85"/>
@@ -14462,15 +14462,15 @@
       <c r="BI112" s="158"/>
     </row>
     <row r="113" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A113" s="262" t="s">
+      <c r="A113" s="260" t="s">
         <v>23</v>
       </c>
-      <c r="B113" s="263"/>
-      <c r="C113" s="204">
+      <c r="B113" s="261"/>
+      <c r="C113" s="203">
         <f>SUM(C37:C112)</f>
         <v>544700</v>
       </c>
-      <c r="D113" s="203"/>
+      <c r="D113" s="202"/>
       <c r="F113" s="89"/>
       <c r="G113" s="85"/>
       <c r="H113" s="85"/>
@@ -14531,7 +14531,7 @@
     <row r="114" spans="1:61" ht="13.5" thickBot="1">
       <c r="A114" s="96"/>
       <c r="B114" s="97"/>
-      <c r="C114" s="192"/>
+      <c r="C114" s="191"/>
       <c r="D114" s="97"/>
       <c r="F114" s="89"/>
       <c r="G114" s="85"/>
@@ -14591,14 +14591,14 @@
       <c r="BI114" s="158"/>
     </row>
     <row r="115" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A115" s="264" t="s">
+      <c r="A115" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="265"/>
-      <c r="C115" s="202" t="s">
+      <c r="B115" s="263"/>
+      <c r="C115" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="201"/>
+      <c r="D115" s="200"/>
       <c r="F115" s="89"/>
       <c r="G115" s="87"/>
       <c r="H115" s="87"/>
@@ -15234,8 +15234,8 @@
       <c r="N149" s="161"/>
     </row>
     <row r="150" spans="5:14">
-      <c r="F150" s="266"/>
-      <c r="G150" s="266"/>
+      <c r="F150" s="264"/>
+      <c r="G150" s="264"/>
       <c r="H150" s="158"/>
       <c r="I150" s="51"/>
       <c r="J150" s="38"/>
@@ -15895,7 +15895,7 @@
   <dimension ref="A1:AC224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -15915,36 +15915,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="232"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="230"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="293" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="232"/>
+      <c r="B2" s="294"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="230"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="287" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="291"/>
-      <c r="F3" s="232"/>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="230"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -15970,14 +15970,14 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
-      <c r="A4" s="298" t="s">
+      <c r="A4" s="296" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="232"/>
+      <c r="B4" s="297"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="230"/>
       <c r="G4" s="19"/>
       <c r="H4" s="7" t="s">
         <v>11</v>
@@ -16005,20 +16005,20 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="21.75">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="299" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="220">
+      <c r="B5" s="300">
         <v>9000000</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="189" t="s">
+      <c r="C5" s="187"/>
+      <c r="D5" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="218">
+      <c r="E5" s="217">
         <v>8136390</v>
       </c>
-      <c r="F5" s="232"/>
+      <c r="F5" s="230"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -16054,7 +16054,7 @@
       <c r="E6" s="180">
         <v>10600</v>
       </c>
-      <c r="F6" s="232"/>
+      <c r="F6" s="230"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -16083,10 +16083,10 @@
       <c r="D7" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="219">
+      <c r="E7" s="218">
         <v>426314.69999999925</v>
       </c>
-      <c r="F7" s="232"/>
+      <c r="F7" s="230"/>
       <c r="H7" s="29"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -16115,8 +16115,8 @@
       <c r="B8" s="179"/>
       <c r="C8" s="32"/>
       <c r="D8" s="175"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="232"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="230"/>
       <c r="G8" s="29"/>
       <c r="H8" s="171"/>
       <c r="I8" s="1"/>
@@ -16151,7 +16151,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="174"/>
       <c r="E9" s="180"/>
-      <c r="F9" s="232"/>
+      <c r="F9" s="230"/>
       <c r="G9" s="171"/>
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
@@ -16189,7 +16189,7 @@
       <c r="E10" s="180">
         <v>544700</v>
       </c>
-      <c r="F10" s="232"/>
+      <c r="F10" s="230"/>
       <c r="G10" s="29"/>
       <c r="H10" s="178"/>
       <c r="I10" s="27"/>
@@ -16218,7 +16218,7 @@
       <c r="A11" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="221">
+      <c r="B11" s="219">
         <f>B6-B10-B9+B7</f>
         <v>118004.7</v>
       </c>
@@ -16226,10 +16226,10 @@
       <c r="D11" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="219">
+      <c r="E11" s="218">
         <v>0</v>
       </c>
-      <c r="F11" s="232"/>
+      <c r="F11" s="230"/>
       <c r="H11" s="178"/>
       <c r="I11" s="27"/>
       <c r="J11" s="1"/>
@@ -16255,11 +16255,11 @@
     </row>
     <row r="12" spans="1:29" ht="21.75">
       <c r="A12" s="186"/>
-      <c r="B12" s="222"/>
+      <c r="B12" s="220"/>
       <c r="C12" s="32"/>
       <c r="D12" s="174"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="232"/>
+      <c r="E12" s="218"/>
+      <c r="F12" s="230"/>
       <c r="G12" s="27"/>
       <c r="H12" s="171"/>
       <c r="I12" s="27" t="s">
@@ -16287,12 +16287,12 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="21.75">
-      <c r="A13" s="224"/>
-      <c r="B13" s="225"/>
+      <c r="A13" s="222"/>
+      <c r="B13" s="223"/>
       <c r="C13" s="32"/>
       <c r="D13" s="174"/>
       <c r="E13" s="180"/>
-      <c r="F13" s="232"/>
+      <c r="F13" s="230"/>
       <c r="G13" s="28"/>
       <c r="H13" s="171"/>
       <c r="I13" s="27" t="s">
@@ -16322,12 +16322,12 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="224"/>
-      <c r="B14" s="225"/>
+      <c r="A14" s="222"/>
+      <c r="B14" s="223"/>
       <c r="C14" s="32"/>
       <c r="D14" s="174"/>
       <c r="E14" s="180"/>
-      <c r="F14" s="232"/>
+      <c r="F14" s="230"/>
       <c r="G14" s="28"/>
       <c r="H14" s="171"/>
       <c r="I14" s="27"/>
@@ -16357,8 +16357,8 @@
       <c r="B15" s="179"/>
       <c r="C15" s="32"/>
       <c r="D15" s="175"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="232"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="230"/>
       <c r="G15" s="8"/>
       <c r="H15" s="173"/>
       <c r="J15" s="1"/>
@@ -16400,7 +16400,7 @@
         <f>E5+E6+E7+E10+E11+E12</f>
         <v>9118004.6999999993</v>
       </c>
-      <c r="F16" s="232"/>
+      <c r="F16" s="230"/>
       <c r="G16" s="151">
         <f>B16-E16</f>
         <v>0</v>
@@ -16435,7 +16435,7 @@
       <c r="C17" s="170"/>
       <c r="D17" s="176"/>
       <c r="E17" s="182"/>
-      <c r="F17" s="232"/>
+      <c r="F17" s="230"/>
       <c r="G17" s="7"/>
       <c r="H17" s="171"/>
       <c r="I17" s="1"/>
@@ -16461,14 +16461,14 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="23.25" thickBot="1">
-      <c r="A18" s="292" t="s">
+      <c r="A18" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="293"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="293"/>
-      <c r="E18" s="294"/>
-      <c r="F18" s="232"/>
+      <c r="B18" s="291"/>
+      <c r="C18" s="291"/>
+      <c r="D18" s="291"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="230"/>
       <c r="G18" s="8"/>
       <c r="H18" s="171"/>
       <c r="I18" s="1"/>
@@ -16494,20 +16494,20 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="21.75">
-      <c r="A19" s="227" t="s">
+      <c r="A19" s="225" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="235">
+      <c r="B19" s="233">
         <v>147630</v>
       </c>
-      <c r="C19" s="228"/>
-      <c r="D19" s="228" t="s">
+      <c r="C19" s="226"/>
+      <c r="D19" s="226" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="237">
+      <c r="E19" s="235">
         <v>32000</v>
       </c>
-      <c r="F19" s="233"/>
+      <c r="F19" s="231"/>
       <c r="H19" s="171"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -16532,20 +16532,20 @@
       <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="22.5" thickBot="1">
-      <c r="A20" s="239" t="s">
+      <c r="A20" s="237" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="236">
+      <c r="B20" s="234">
         <v>299440</v>
       </c>
-      <c r="C20" s="234"/>
-      <c r="D20" s="240" t="s">
+      <c r="C20" s="232"/>
+      <c r="D20" s="238" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="238">
+      <c r="E20" s="236">
         <v>32000</v>
       </c>
-      <c r="F20" s="233"/>
+      <c r="F20" s="231"/>
       <c r="G20" s="184"/>
       <c r="H20" s="171"/>
       <c r="I20" s="1"/>
@@ -16571,13 +16571,13 @@
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" s="1" customFormat="1" ht="22.5" thickBot="1">
-      <c r="A21" s="283" t="s">
+      <c r="A21" s="281" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="284"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="284"/>
-      <c r="E21" s="285"/>
+      <c r="B21" s="282"/>
+      <c r="C21" s="282"/>
+      <c r="D21" s="282"/>
+      <c r="E21" s="283"/>
       <c r="F21" s="183"/>
       <c r="G21" s="183"/>
     </row>
